--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1574825.721673195</v>
+        <v>-1577402.043154438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>162.6828958164092</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>112.5587687668651</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>95.44336989065499</v>
       </c>
       <c r="X4" t="n">
-        <v>208.1183413816755</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.56193867130605</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>215.8536526006939</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657097</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>73.97454661313873</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>106.5360147857923</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>186.6141597285343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>307.9492910885727</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>144.65815521503</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>25.42907173311889</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606876494</v>
       </c>
       <c r="E13" t="n">
-        <v>53.11937003877868</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.58181139165723</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1816,22 +1816,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.2646806878225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.6512573180102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>73.98898794535445</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.63824106824953</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652627</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.843385122603</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C2" t="n">
-        <v>791.8808681821918</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D2" t="n">
-        <v>791.8808681821918</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.048315423617</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.582557162537</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.443225186725</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>710.6664589680076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.6664589680076</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943749</v>
+        <v>1879.829578210441</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033375</v>
+        <v>1510.86706127003</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965871</v>
+        <v>1152.601362663279</v>
       </c>
       <c r="E5" t="n">
-        <v>581.1420803965871</v>
+        <v>1152.601362663279</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>741.6154578736716</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>326.5430077186681</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609172</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2266.429418274563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387319</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.5187033424295</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962296</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181858</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181858</v>
+        <v>756.3347843200172</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877118</v>
+        <v>756.3347843200172</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877118</v>
+        <v>756.3347843200172</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877118</v>
+        <v>756.3347843200172</v>
       </c>
       <c r="W7" t="n">
-        <v>591.5082542404468</v>
+        <v>756.3347843200172</v>
       </c>
       <c r="X7" t="n">
-        <v>363.5187033424295</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.5187033424295</v>
+        <v>528.3452334219999</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3137.106670368228</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3137.106670368228</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>1966.893243807961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.4345062145375</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C10" t="n">
-        <v>507.4345062145375</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145375</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145375</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145375</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W10" t="n">
-        <v>507.4345062145375</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X10" t="n">
-        <v>507.4345062145375</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.4345062145375</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
         <v>1540.888753373307</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909563</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6598,34 +6598,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>372.4964262156764</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>867.8220324314351</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,34 +6835,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.687142285114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7731,22 +7731,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.0509458470714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>236.6821999505479</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>32.13019070314358</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>165.5007131460359</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.079628445936</v>
       </c>
       <c r="X4" t="n">
-        <v>17.59131400736169</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8202214113359</v>
       </c>
       <c r="E13" t="n">
-        <v>93.3145926077905</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.83923663127402</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.18072286392712</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>72.44497470121472</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>123.7828069546817</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-4.476419235288631e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26341,7 +26341,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020503</v>
+        <v>3456.426522020522</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405243</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,31 +26430,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496088</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="L4" t="n">
+        <v>22817.55530496087</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496083</v>
       </c>
-      <c r="M4" t="n">
-        <v>22817.55530496085</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496085</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.37493919622</v>
+        <v>-57848.3749391962</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.37493919613</v>
+        <v>-57848.37493919623</v>
       </c>
       <c r="E6" t="n">
-        <v>-300111.0327273785</v>
+        <v>-300145.7706528144</v>
       </c>
       <c r="F6" t="n">
-        <v>25301.4290799766</v>
+        <v>25266.69115454094</v>
       </c>
       <c r="G6" t="n">
-        <v>25301.42907997666</v>
+        <v>25266.69115454088</v>
       </c>
       <c r="H6" t="n">
-        <v>25301.4290799764</v>
+        <v>25266.69115454085</v>
       </c>
       <c r="I6" t="n">
-        <v>25301.42907997662</v>
+        <v>25266.69115454094</v>
       </c>
       <c r="J6" t="n">
-        <v>-192229.7733173008</v>
+        <v>-192264.5112427365</v>
       </c>
       <c r="K6" t="n">
-        <v>-1727.07942625838</v>
+        <v>-1727.079426258366</v>
       </c>
       <c r="L6" t="n">
         <v>17700.6385673734</v>
@@ -26555,13 +26555,13 @@
         <v>-67354.38936813839</v>
       </c>
       <c r="N6" t="n">
-        <v>17700.63856737336</v>
+        <v>17700.6385673734</v>
       </c>
       <c r="O6" t="n">
-        <v>17700.63856737339</v>
+        <v>17700.63856737333</v>
       </c>
       <c r="P6" t="n">
-        <v>-1727.079426258351</v>
+        <v>-1727.079426258395</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.22222970669451</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>120.711125059577</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>308.3141070704054</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>78.75411178662659</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>115.7944787183032</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>179.9869835507986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>141.1380987416006</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>61.78180958989628</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>3.95731780318232</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>261.0939266034721</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>481.4297026814652</v>
       </c>
       <c r="N12" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>604.2458225991933</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>403.8524967138027</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K33" t="n">
-        <v>268.1779244693588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>314.4610577451606</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,10 +34132,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>434.178635838203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>472.9041105158599</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>272.5107846304694</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K33" t="n">
-        <v>130.3364854949998</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.4792836591391</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37780,10 +37780,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367784</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>291.5823913937585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
